--- a/graph_generation/results_prelim/gpt3.5/level_4/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_4/k_1.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>prompt</t>
   </si>
@@ -28,7 +30,10 @@
     <t>evaluator_response</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t>evaluator_partial_correctness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: what is the least cost path from node A to node H?
    A B C D E F G H I J K L
@@ -47,29 +52,306 @@
 Solution: A -&gt; B -&gt; C -&gt; H
  Given these examples, answer the following quesiton.
 what is the least cost path from node A to node J?
-   A B C D E F G H I J K L
- A 0 2 0 0 0 0 0 0 0 0 0 0
- B 2 0 5 0 2 0 0 0 0 2 2 2
- C 0 5 0 4 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 0 0 0 0 0
- E 0 2 0 0 0 4 0 0 0 0 0 0
- F 0 0 0 0 4 0 1 0 5 0 0 0
- G 0 0 0 0 0 1 0 5 0 0 0 0
- H 0 0 0 0 0 0 5 0 0 0 0 0
- I 0 0 0 0 0 5 0 0 0 0 0 0
- J 0 2 0 0 0 0 0 0 0 0 0 0
- K 0 2 0 0 0 0 0 0 0 0 0 4
- L 0 2 0 0 0 0 0 0 0 0 4 0
+   A B C D E F G H I J K
+ A 0 3 0 5 0 0 0 0 0 0 1
+ B 3 0 1 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 0
+ D 5 0 0 0 2 2 0 0 0 0 0
+ E 0 0 0 2 0 0 0 0 0 0 0
+ F 0 0 0 2 0 0 2 0 0 0 0
+ G 0 0 0 0 0 2 0 4 0 3 3
+ H 0 0 0 0 0 0 4 0 5 0 0
+ I 0 0 0 0 0 0 0 5 0 0 0
+ J 0 0 0 0 0 0 3 0 0 0 0
+ K 1 0 0 0 0 0 3 0 0 0 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; J</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node J is A -&gt; B -&gt; J.</t>
-  </si>
-  <si>
-    <t>Correct</t>
+    <t>A -&gt; K -&gt; G -&gt; J</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node J, we can use Dijkstra's algorithm. 
+1. Create a list to keep track of the cost to reach each node from node A. Initialize the cost of A to 0 and the cost of all other nodes to infinity.
+2. Create a priority queue to store the nodes to be processed, starting with node A.
+3. While the priority queue is not empty, do the following:
+   - Extract the node with the minimum cost from the priority queue.
+   - Update the cost to reach the neighboring nodes of the extracted node, if the new cost is lower than the current cost.
+   - Add the neighboring nodes to the priority queue.
+4. Once the priority queue is empty, the algorithm is done and the cost to reach each node from node A has been determined.
+5. Trace back the least cost path from node A to node J using the information obtained from the algorithm.
+Using this algorithm, the least cost path from node A to node J for the given adjacency matrix is as follows:
+A -&gt; B -&gt; C -&gt; J</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>Output: 1/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: what is the least cost path from node A to node S?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 4 4 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ E 0 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 3 0 3 0 1 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 3 2 0 0 0 1 5 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 2 0 0 2 5 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 5
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0
+ T 0 0 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 4 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 2 0
+Solution: A -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; Q -&gt; S
+ Given these examples, answer the following quesiton.
+what is the least cost path from node A to node T?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 5 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 5 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 5 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 5 0 0 5 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 4 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 4 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 4 0 0 0 0 0 0 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 2 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 1 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 3 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; N -&gt; O -&gt; R -&gt; T</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node T, we can use Dijkstra's algorithm. 
+First, we create a distance array to keep track of the minimum cost to reach each node from node A. We initialize all values in the distance array to infinity, except for the distance to node A, which is set to 0.
+Next, we create a visited array to keep track of the nodes that have been visited. We initialize all values in the visited array to false.
+Then, we repeat the following steps until all nodes have been visited:
+1. Find the node with the minimum distance value that has not been visited yet. Call this node "current".
+2. Mark "current" as visited.
+3. Update the distance array for each neighboring node of "current". If the new distance is less than the current distance, update the distance.
+4. Repeat steps 1-3 until all nodes have been visited.
+Finally, the minimum cost path from node A to node T is given by the values in the distance array.
+Here is the step-by-step implementation of Dijkstra's algorithm:
+0. Initialize distance array and visited array
+   distance[A] = 0
+   distance[B] = infinity
+   distance[C] = infinity
+   distance[D] = infinity
+   distance[E] = infinity
+   distance[F] = infinity
+   distance[G] = infinity
+   distance[H] = infinity
+   distance[I] = infinity
+   distance[J] = infinity
+   distance[K] = infinity
+   distance[L] = infinity
+   distance[M] = infinity
+   distance[N] = infinity
+   distance[O] = infinity
+   distance[P] = infinity
+   distance[Q] = infinity
+   distance[R] = infinity
+   distance[S] = infinity
+   distance[T] = infinity
+   distance[U] = infinity
+   distance[V] = infinity
+   distance[W] = infinity
+   distance[X] = infinity
+   distance[Y] = infinity
+   distance[Z] = infinity
+   visited[A] = false
+   visited[B] = false
+   visited[C] = false
+   visited[D] = false
+   visited[E] = false
+   visited[F] = false
+   visited[G] = false
+   visited[H] = false
+   visited[I] = false
+   visited[J] = false
+   visited[K] = false
+   visited[L] = false
+   visited[M] = false
+   visited[N] = false
+   visited[O] = false
+   visited[P] = false
+   visited[Q] = false
+   visited[R] = false
+   visited[S] = false
+   visited[T] = false
+   visited[U] = false
+   visited[V] = false
+   visited[W] = false
+   visited[X] = false
+   visited[Y] = false
+   visited[Z] = false
+1. Set the current node to A
+2. While the current node is not equal to T:
+   a. For each neighboring node of the current node:
+      i. If the neighboring node has not been visited and the sum of the cost from the current node to the neighboring node and the current distance to the neighboring node is less than the current distance to the neighboring node, update the distance array for the neighboring node.
+   b. Mark the current node as visited.
+   c. Set the node with the minimum distance value that has not been visited yet as the new current node.
+3. The minimum cost path from A to T is given by the value in the distance array for node T.
+Following this algorithm, the least cost path from node A to node T is 0 -&gt; 4 -&gt; 0 -&gt; 1 -&gt; 5 -&gt; 0 -&gt; 3</t>
+  </si>
+  <si>
+    <t>Output: 0/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+Consider some examples
+Example 1: what is the least cost path from node A to node S?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 4 4 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ E 0 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 3 0 3 0 1 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 3 2 0 0 0 1 5 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 2 0 0 2 5 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 5
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0
+ T 0 0 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 4 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 2 0
+Solution: A -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; Q -&gt; S
+ Given these examples, answer the following quesiton.
+what is the least cost path from node A to node T?
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 3 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 2 0 0 3 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ D 0 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 3 0 0 0 0 0 1 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 4 0 5 2 0 0 0 0 0 0 0 0 0 0 2
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0 0 0 3 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5 5 5 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 4 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; C -&gt; H -&gt; J -&gt; K -&gt; L -&gt; M -&gt; O -&gt; T</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node T, we can use Dijkstra's algorithm.
+1. Initialize an empty set of visited nodes and a list of distances for each node. Set the distance of node A to 0 and all other nodes to infinity.
+2. While the set of visited nodes is not equal to all nodes:
+   - Find the node with the minimum distance from the distances list that is not in the visited set. Let's call this node X.
+   - Add node X to the visited set.
+   - Update the distances list for each neighbor of X:
+     - If the distance from A to X plus the cost of traveling from X to the neighbor is less than the current distance of the neighbor, update the distance of the neighbor.
+3. Once all nodes have been visited, the distance of node T will represent the least cost path from node A to node T.
+Based on the given adjacency matrix, here is the step-by-step process:
+1. Initialize an empty set of visited nodes and a list of distances for each node. Set the distance of node A to 0 and all other nodes to infinity.
+Visited set: {}
+Distances list: [0, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
+2. While the set of visited nodes is not equal to all nodes:
+   - Find the node with the minimum distance from the distances list that is not in the visited set. Let's call this node X.
+   - Add node X to the visited set.
+   - Update the distances list for each neighbor of X:
+     - If the distance from A to X plus the cost of traveling from X to the neighbor is less than the current distance of the neighbor, update the distance of the neighbor.
+Visiting node A:
+   - Update the distances list for neighbors of A: B, C, D, E
+     - Distance from A to B = 4, which is less than infinity for B, update distance of B to 4
+     - Distance from A to C = 4, which is less than infinity for C, update distance of C to 4
+     - Distance from A to D = 4, which is less than infinity for D, update distance of D to 4
+Visited set: {A}
+Distances list: [0, 4, 4, 4, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
+Visiting node B:
+   - Update the distances list for neighbors of B: A
+     - Distance from A to B = 4, which is not less than infinity for A, no update
+Visited set: {A, B}
+Distances list: [0, 4, 4, 4, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
+Visiting node C:
+   - Update the distances list for neighbors of C: A, D, F
+     - Distance from A to C = 4, which is not less than infinity for A, no update
+     - Distance from C to D = 3, which is less than infinity for D, update distance of D to 7
+     - Distance from C to F = 3, which is less than infinity for F, update distance of F to 7
+Visited set: {A, B, C}
+Distances list: [0, 4, 4, 4, infinity, 7, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
+Visiting node D:
+   - Update the distances list for neighbors of D: A, C, E
+     - Distance from A to D = 4, which is not less than infinity for A, no update
+     - Distance from C to D = 3, which is not less than infinity for C, no update
+     - Distance from D to E = 1, which is less than infinity for E, update distance of E to 5
+Visited set: {A, B, C, D}
+Distances list: [0, 4, 4, 4, 5, 7, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
+Visiting node E:
+   - Update the distances list for neighbors of E: D, F
+     - Distance from D to E = 1, which is not less than infinity for D, no update
+     - Distance from E to F = 3, which is less than infinity for F, update distance of F to 8
+Visited set: {A, B, C, D, E}
+Distances list: [0, 4, 4, 4, 5</t>
+  </si>
+  <si>
+    <t>Incorrect</t>
+  </si>
+  <si>
+    <t>Output: 4/9</t>
   </si>
 </sst>
 </file>
@@ -427,13 +709,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,19 +728,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_4/k_1.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_4/k_1.xlsx
@@ -33,9 +33,9 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 11 nodes labelled A to K. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 18 nodes labelled A to R. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the least cost path from node A to node H?
+Example 1: what is the least cost path from node A to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L
  A 0 3 0 0 0 0 0 0 0 0 0 0
  B 3 0 4 0 0 0 0 0 3 2 3 3
@@ -51,47 +51,44 @@
  L 0 3 0 0 0 0 0 0 0 0 3 0
 Solution: A -&gt; B -&gt; C -&gt; H
  Given these examples, answer the following quesiton.
-what is the least cost path from node A to node J?
-   A B C D E F G H I J K
- A 0 3 0 5 0 0 0 0 0 0 1
- B 3 0 1 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0
- D 5 0 0 0 2 2 0 0 0 0 0
- E 0 0 0 2 0 0 0 0 0 0 0
- F 0 0 0 2 0 0 2 0 0 0 0
- G 0 0 0 0 0 2 0 4 0 3 3
- H 0 0 0 0 0 0 4 0 5 0 0
- I 0 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 0 3 0 0 0 0
- K 1 0 0 0 0 0 3 0 0 0 0
+what is the least cost path from node A to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R
+ A 0 5 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 5 0 0 0 0 0 0 2 4 0 0 0 0 0
+ E 0 0 0 5 0 2 5 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 5 0 0 3 0 0 1 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 3
+ K 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0
+ L 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ M 0 0 0 4 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3
+ R 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 3 0
     </t>
   </si>
   <si>
-    <t>A -&gt; K -&gt; G -&gt; J</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node J, we can use Dijkstra's algorithm. 
-1. Create a list to keep track of the cost to reach each node from node A. Initialize the cost of A to 0 and the cost of all other nodes to infinity.
-2. Create a priority queue to store the nodes to be processed, starting with node A.
-3. While the priority queue is not empty, do the following:
-   - Extract the node with the minimum cost from the priority queue.
-   - Update the cost to reach the neighboring nodes of the extracted node, if the new cost is lower than the current cost.
-   - Add the neighboring nodes to the priority queue.
-4. Once the priority queue is empty, the algorithm is done and the cost to reach each node from node A has been determined.
-5. Trace back the least cost path from node A to node J using the information obtained from the algorithm.
-Using this algorithm, the least cost path from node A to node J for the given adjacency matrix is as follows:
-A -&gt; B -&gt; C -&gt; J</t>
+    <t>A -&gt; C -&gt; D -&gt; L -&gt; K -&gt; G -&gt; H -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node J is A -&gt; C -&gt; D -&gt; J.</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
-    <t>Output: 1/1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t>4/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the least cost path from node A to node S?
+Example 1: what is the least cost path from node A to node S? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
  A 0 4 4 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -121,119 +118,49 @@
  Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 2 0
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; Q -&gt; S
  Given these examples, answer the following quesiton.
-what is the least cost path from node A to node T?
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 5 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 5 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 1 0 0 5 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 5 0 0 5 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 4 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 4 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 4 0 0 0 0 0 0 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 2 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 1 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3
- Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 3 0
+what is the least cost path from node A to node T? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ D 0 0 2 0 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 1 0 0 4 0 0 0 0 0 2 0 5 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 5 1 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ R 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 3 4 4 3
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 2
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 4 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; N -&gt; O -&gt; R -&gt; T</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node T, we can use Dijkstra's algorithm. 
-First, we create a distance array to keep track of the minimum cost to reach each node from node A. We initialize all values in the distance array to infinity, except for the distance to node A, which is set to 0.
-Next, we create a visited array to keep track of the nodes that have been visited. We initialize all values in the visited array to false.
-Then, we repeat the following steps until all nodes have been visited:
-1. Find the node with the minimum distance value that has not been visited yet. Call this node "current".
-2. Mark "current" as visited.
-3. Update the distance array for each neighboring node of "current". If the new distance is less than the current distance, update the distance.
-4. Repeat steps 1-3 until all nodes have been visited.
-Finally, the minimum cost path from node A to node T is given by the values in the distance array.
-Here is the step-by-step implementation of Dijkstra's algorithm:
-0. Initialize distance array and visited array
-   distance[A] = 0
-   distance[B] = infinity
-   distance[C] = infinity
-   distance[D] = infinity
-   distance[E] = infinity
-   distance[F] = infinity
-   distance[G] = infinity
-   distance[H] = infinity
-   distance[I] = infinity
-   distance[J] = infinity
-   distance[K] = infinity
-   distance[L] = infinity
-   distance[M] = infinity
-   distance[N] = infinity
-   distance[O] = infinity
-   distance[P] = infinity
-   distance[Q] = infinity
-   distance[R] = infinity
-   distance[S] = infinity
-   distance[T] = infinity
-   distance[U] = infinity
-   distance[V] = infinity
-   distance[W] = infinity
-   distance[X] = infinity
-   distance[Y] = infinity
-   distance[Z] = infinity
-   visited[A] = false
-   visited[B] = false
-   visited[C] = false
-   visited[D] = false
-   visited[E] = false
-   visited[F] = false
-   visited[G] = false
-   visited[H] = false
-   visited[I] = false
-   visited[J] = false
-   visited[K] = false
-   visited[L] = false
-   visited[M] = false
-   visited[N] = false
-   visited[O] = false
-   visited[P] = false
-   visited[Q] = false
-   visited[R] = false
-   visited[S] = false
-   visited[T] = false
-   visited[U] = false
-   visited[V] = false
-   visited[W] = false
-   visited[X] = false
-   visited[Y] = false
-   visited[Z] = false
-1. Set the current node to A
-2. While the current node is not equal to T:
-   a. For each neighboring node of the current node:
-      i. If the neighboring node has not been visited and the sum of the cost from the current node to the neighboring node and the current distance to the neighboring node is less than the current distance to the neighboring node, update the distance array for the neighboring node.
-   b. Mark the current node as visited.
-   c. Set the node with the minimum distance value that has not been visited yet as the new current node.
-3. The minimum cost path from A to T is given by the value in the distance array for node T.
-Following this algorithm, the least cost path from node A to node T is 0 -&gt; 4 -&gt; 0 -&gt; 1 -&gt; 5 -&gt; 0 -&gt; 3</t>
-  </si>
-  <si>
-    <t>Output: 0/27</t>
+    <t>A -&gt; B -&gt; C -&gt; R -&gt; T</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node T is A -&gt; B -&gt; C -&gt; R -&gt; T.</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>5/5</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the least cost path from node A to node S?
+Example 1: what is the least cost path from node A to node S? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
  A 0 4 4 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -263,95 +190,45 @@
  Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 2 0
 Solution: A -&gt; D -&gt; E -&gt; F -&gt; I -&gt; J -&gt; Q -&gt; S
  Given these examples, answer the following quesiton.
-what is the least cost path from node A to node T?
+what is the least cost path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 3 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 2 0 0 3 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
- D 0 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 3 0 0 0 0 0 1 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 2 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ B 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 1 0 0 0 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 4 0 1 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 4 0 5 2 0 0 0 0 0 0 0 0 0 0 2
- N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0 0 0 3 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5 5 5 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4
- Z 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 4 0
+ J 0 0 0 0 0 0 0 5 0 0 3 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 2 0 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ U 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; C -&gt; H -&gt; J -&gt; K -&gt; L -&gt; M -&gt; O -&gt; T</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node T, we can use Dijkstra's algorithm.
-1. Initialize an empty set of visited nodes and a list of distances for each node. Set the distance of node A to 0 and all other nodes to infinity.
-2. While the set of visited nodes is not equal to all nodes:
-   - Find the node with the minimum distance from the distances list that is not in the visited set. Let's call this node X.
-   - Add node X to the visited set.
-   - Update the distances list for each neighbor of X:
-     - If the distance from A to X plus the cost of traveling from X to the neighbor is less than the current distance of the neighbor, update the distance of the neighbor.
-3. Once all nodes have been visited, the distance of node T will represent the least cost path from node A to node T.
-Based on the given adjacency matrix, here is the step-by-step process:
-1. Initialize an empty set of visited nodes and a list of distances for each node. Set the distance of node A to 0 and all other nodes to infinity.
-Visited set: {}
-Distances list: [0, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
-2. While the set of visited nodes is not equal to all nodes:
-   - Find the node with the minimum distance from the distances list that is not in the visited set. Let's call this node X.
-   - Add node X to the visited set.
-   - Update the distances list for each neighbor of X:
-     - If the distance from A to X plus the cost of traveling from X to the neighbor is less than the current distance of the neighbor, update the distance of the neighbor.
-Visiting node A:
-   - Update the distances list for neighbors of A: B, C, D, E
-     - Distance from A to B = 4, which is less than infinity for B, update distance of B to 4
-     - Distance from A to C = 4, which is less than infinity for C, update distance of C to 4
-     - Distance from A to D = 4, which is less than infinity for D, update distance of D to 4
-Visited set: {A}
-Distances list: [0, 4, 4, 4, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
-Visiting node B:
-   - Update the distances list for neighbors of B: A
-     - Distance from A to B = 4, which is not less than infinity for A, no update
-Visited set: {A, B}
-Distances list: [0, 4, 4, 4, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
-Visiting node C:
-   - Update the distances list for neighbors of C: A, D, F
-     - Distance from A to C = 4, which is not less than infinity for A, no update
-     - Distance from C to D = 3, which is less than infinity for D, update distance of D to 7
-     - Distance from C to F = 3, which is less than infinity for F, update distance of F to 7
-Visited set: {A, B, C}
-Distances list: [0, 4, 4, 4, infinity, 7, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
-Visiting node D:
-   - Update the distances list for neighbors of D: A, C, E
-     - Distance from A to D = 4, which is not less than infinity for A, no update
-     - Distance from C to D = 3, which is not less than infinity for C, no update
-     - Distance from D to E = 1, which is less than infinity for E, update distance of E to 5
-Visited set: {A, B, C, D}
-Distances list: [0, 4, 4, 4, 5, 7, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
-Visiting node E:
-   - Update the distances list for neighbors of E: D, F
-     - Distance from D to E = 1, which is not less than infinity for D, no update
-     - Distance from E to F = 3, which is less than infinity for F, update distance of F to 8
-Visited set: {A, B, C, D, E}
-Distances list: [0, 4, 4, 4, 5</t>
-  </si>
-  <si>
-    <t>Incorrect</t>
-  </si>
-  <si>
-    <t>Output: 4/9</t>
+    <t>A -&gt; G -&gt; N -&gt; Q -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node T is:
+A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; T</t>
+  </si>
+  <si>
+    <t>1/6</t>
   </si>
 </sst>
 </file>
@@ -790,10 +667,10 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -828,16 +705,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
